--- a/iTransform/Trackersheet/RhegisanJebas_i-Transform_DevOps_Tracker_Sheet.xlsx
+++ b/iTransform/Trackersheet/RhegisanJebas_i-Transform_DevOps_Tracker_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ae16d15ef619a5/Desktop/iTransform/iTransform/Trackersheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FE32FAD6-23B1-414A-9619-2EEE8B448513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{9072B284-E71F-433D-B94B-B458D01026C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A52BBB-885A-4664-BC48-6781CC4B14EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 19" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -369,13 +369,16 @@
     <t xml:space="preserve">Created multiple users : Managed them and assigned them different roles. Worked with Commandline and built a parameterized project using a CLI. Used jenkins as a service and automated deployement of a  Spring-PetClinic (Maven project).  Learned more about Pipeline in jenkins, studied groovy DSL. </t>
   </si>
   <si>
-    <t>Docker</t>
+    <t>Docker for Beginners</t>
   </si>
   <si>
     <t>Got an overview of what is Docker, why it is used, where it is used and the features of Docker. Studied concepts like virtualization, containers, docker images. Explored Docker Hub and got to know about its usage. Installed Docker Desktop in local machine and got started with docker ( Clone, Build, Run and share).</t>
   </si>
   <si>
     <t>https://hub.docker.com/u/rhegisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with Basic commands in docker : Commands related to Docker images, containers and system. Understood what is container port and host port. Explored important concepts like Docker workflows and Docker network. Studied what is docker-compose and dockerfile why are they used and their features. Configured a Dockerfile and Built, run the Dockerfile. Understood what is docker volume, why do we need it and its types. Learned how to configure DockerVolumes in docker-compose. Got an overview of container Orchestration tool : Docker swarm.  </t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1301,90 +1304,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,6 +1411,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1726,11 +1738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
@@ -1743,12 +1755,12 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="35.450000000000003" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="101.25" customHeight="1">
       <c r="B3" s="105">
         <v>44295</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="76.5" customHeight="1">
       <c r="B4" s="105"/>
       <c r="C4" s="101"/>
       <c r="D4" s="14">
@@ -1820,7 +1832,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="87" customHeight="1">
       <c r="B5" s="106"/>
       <c r="C5" s="102"/>
       <c r="D5" s="20">
@@ -1844,7 +1856,7 @@
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
     </row>
-    <row r="6" spans="2:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="80.25" customHeight="1">
       <c r="B6" s="107">
         <v>44296</v>
       </c>
@@ -1869,7 +1881,7 @@
       <c r="I6" s="28"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="2:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="109.5" customHeight="1">
       <c r="B7" s="107"/>
       <c r="C7" s="95"/>
       <c r="D7" s="29">
@@ -1889,7 +1901,7 @@
       </c>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="2:15" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="108" customHeight="1">
       <c r="B8" s="108"/>
       <c r="C8" s="96"/>
       <c r="D8" s="34">
@@ -1912,17 +1924,17 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="2:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="157.5" customHeight="1">
       <c r="B9" s="107">
         <v>44298</v>
       </c>
       <c r="C9" s="95">
         <v>3</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="76">
         <v>6</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="76" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="39" t="s">
@@ -1937,7 +1949,7 @@
       <c r="I9" s="41"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="2:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="111" customHeight="1">
       <c r="B10" s="108"/>
       <c r="C10" s="96"/>
       <c r="D10" s="34">
@@ -1956,20 +1968,20 @@
       <c r="I10" s="38"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="2:15" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="115.5" customHeight="1">
       <c r="B11" s="105">
         <v>44300</v>
       </c>
       <c r="C11" s="97">
         <v>4</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="77">
         <v>4</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="74" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="42" t="s">
@@ -1981,7 +1993,7 @@
       <c r="I11" s="41"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="2:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="84.75" customHeight="1">
       <c r="B12" s="106"/>
       <c r="C12" s="98"/>
       <c r="D12" s="43">
@@ -2001,7 +2013,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="2:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="125.25" customHeight="1">
       <c r="B13" s="84">
         <v>44301</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="K13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="2:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="124.5" customHeight="1">
       <c r="B14" s="85"/>
       <c r="C14" s="91"/>
       <c r="D14" s="47">
@@ -2048,13 +2060,13 @@
       <c r="L14" s="24"/>
       <c r="M14" s="50"/>
     </row>
-    <row r="15" spans="2:15" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="108.75" customHeight="1">
       <c r="B15" s="88"/>
       <c r="C15" s="92"/>
       <c r="D15" s="79">
         <v>5</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="81" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="79" t="s">
@@ -2067,7 +2079,7 @@
       <c r="I15" s="52"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="75" customHeight="1">
       <c r="B16" s="84">
         <v>44302</v>
       </c>
@@ -2077,10 +2089,10 @@
       <c r="D16" s="78">
         <v>3</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="80" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="60" t="s">
@@ -2091,7 +2103,7 @@
       </c>
       <c r="I16" s="53"/>
     </row>
-    <row r="17" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="57.75" customHeight="1">
       <c r="B17" s="85"/>
       <c r="C17" s="109"/>
       <c r="D17" s="61">
@@ -2109,7 +2121,7 @@
       <c r="H17" s="109"/>
       <c r="I17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="106.5" customHeight="1">
       <c r="B18" s="88"/>
       <c r="C18" s="94"/>
       <c r="D18" s="65">
@@ -2129,7 +2141,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="80.25" customHeight="1">
       <c r="B19" s="84">
         <v>44303</v>
       </c>
@@ -2153,7 +2165,7 @@
       </c>
       <c r="I19" s="49"/>
     </row>
-    <row r="20" spans="2:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="89.25" customHeight="1">
       <c r="B20" s="88"/>
       <c r="C20" s="92"/>
       <c r="D20" s="79">
@@ -2172,7 +2184,7 @@
       <c r="I20" s="52"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="69.75" customHeight="1">
       <c r="B21" s="85">
         <v>44305</v>
       </c>
@@ -2185,7 +2197,7 @@
       <c r="E21" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="80" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="I21" s="53"/>
     </row>
-    <row r="22" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="67.5" customHeight="1">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="65">
@@ -2215,7 +2227,7 @@
       <c r="I22" s="57"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="2:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="86.25" customHeight="1">
       <c r="B23" s="84">
         <v>44306</v>
       </c>
@@ -2239,7 +2251,7 @@
       </c>
       <c r="I23" s="49"/>
     </row>
-    <row r="24" spans="2:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="83.25" customHeight="1">
       <c r="B24" s="85"/>
       <c r="C24" s="87"/>
       <c r="D24" s="79">
@@ -2248,7 +2260,7 @@
       <c r="E24" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="81" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="51" t="s">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="2:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="101.25" customHeight="1">
       <c r="B25" s="67">
         <v>44307</v>
       </c>
@@ -2272,7 +2284,7 @@
       <c r="E25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="81" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="51" t="s">
@@ -2283,7 +2295,7 @@
       </c>
       <c r="I25" s="52"/>
     </row>
-    <row r="26" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="53.25" customHeight="1">
       <c r="B26" s="84">
         <v>44308</v>
       </c>
@@ -2307,7 +2319,7 @@
       </c>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="2:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="71.25" customHeight="1">
       <c r="B27" s="88"/>
       <c r="C27" s="94"/>
       <c r="D27" s="79">
@@ -2316,7 +2328,7 @@
       <c r="E27" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="81" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="51" t="s">
@@ -2325,7 +2337,7 @@
       <c r="H27" s="94"/>
       <c r="I27" s="52"/>
     </row>
-    <row r="28" spans="2:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="65.25" customHeight="1">
       <c r="B28" s="84">
         <v>44309</v>
       </c>
@@ -2349,13 +2361,13 @@
       </c>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="51.75" customHeight="1">
       <c r="B29" s="88"/>
       <c r="C29" s="94"/>
       <c r="D29" s="79">
         <v>4</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="81" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="79" t="s">
@@ -2367,7 +2379,7 @@
       <c r="H29" s="94"/>
       <c r="I29" s="52"/>
     </row>
-    <row r="30" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="94.5">
       <c r="B30" s="84">
         <v>44310</v>
       </c>
@@ -2391,7 +2403,7 @@
       </c>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="2:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="35.25" customHeight="1">
       <c r="B31" s="88"/>
       <c r="C31" s="94"/>
       <c r="D31" s="79">
@@ -2400,7 +2412,7 @@
       <c r="E31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="81" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="51" t="s">
@@ -2412,7 +2424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="55.5" customHeight="1">
       <c r="B32" s="84">
         <v>44312</v>
       </c>
@@ -2436,7 +2448,7 @@
       </c>
       <c r="I32" s="49"/>
     </row>
-    <row r="33" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="64.5" customHeight="1">
       <c r="B33" s="88"/>
       <c r="C33" s="94"/>
       <c r="D33" s="79">
@@ -2454,7 +2466,7 @@
       <c r="H33" s="94"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="2:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="79.5" customHeight="1">
       <c r="B34" s="84">
         <v>44313</v>
       </c>
@@ -2478,7 +2490,7 @@
       </c>
       <c r="I34" s="49"/>
     </row>
-    <row r="35" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="82.5" customHeight="1">
       <c r="B35" s="88"/>
       <c r="C35" s="94"/>
       <c r="D35" s="79">
@@ -2496,7 +2508,7 @@
       <c r="H35" s="94"/>
       <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="2:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="132" customHeight="1">
       <c r="B36" s="75">
         <v>44314</v>
       </c>
@@ -2520,7 +2532,7 @@
       </c>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="81" customHeight="1">
       <c r="B37" s="70">
         <v>44315</v>
       </c>
@@ -2544,7 +2556,7 @@
       </c>
       <c r="I37" s="49"/>
     </row>
-    <row r="38" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="49.5" customHeight="1">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="79">
@@ -2564,7 +2576,7 @@
       </c>
       <c r="I38" s="52"/>
     </row>
-    <row r="39" spans="2:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="98.25" customHeight="1">
       <c r="B39" s="75">
         <v>44316</v>
       </c>
@@ -2588,7 +2600,7 @@
       </c>
       <c r="I39" s="52"/>
     </row>
-    <row r="40" spans="2:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="116.25" customHeight="1">
       <c r="B40" s="75">
         <v>44317</v>
       </c>
@@ -2607,12 +2619,12 @@
       <c r="G40" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="82" t="s">
         <v>101</v>
       </c>
       <c r="I40" s="52"/>
     </row>
-    <row r="41" spans="2:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="86.25" customHeight="1">
       <c r="B41" s="84">
         <v>44319</v>
       </c>
@@ -2636,7 +2648,7 @@
       </c>
       <c r="I41" s="49"/>
     </row>
-    <row r="42" spans="2:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="81.75" customHeight="1">
       <c r="B42" s="85"/>
       <c r="C42" s="73"/>
       <c r="D42" s="47">
@@ -2648,13 +2660,13 @@
       <c r="F42" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="112" t="s">
         <v>105</v>
       </c>
       <c r="H42" s="91"/>
       <c r="I42" s="49"/>
     </row>
-    <row r="43" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="66" customHeight="1">
       <c r="B43" s="88"/>
       <c r="C43" s="72"/>
       <c r="D43" s="79">
@@ -2672,7 +2684,7 @@
       <c r="H43" s="92"/>
       <c r="I43" s="52"/>
     </row>
-    <row r="44" spans="2:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="84.75" customHeight="1">
       <c r="B44" s="67">
         <v>44320</v>
       </c>
@@ -2685,7 +2697,7 @@
       <c r="E44" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="81" t="s">
         <v>108</v>
       </c>
       <c r="G44" s="51" t="s">
@@ -2696,7 +2708,7 @@
       </c>
       <c r="I44" s="83"/>
     </row>
-    <row r="45" spans="2:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="85.5" customHeight="1">
       <c r="B45" s="75">
         <v>44321</v>
       </c>
@@ -2715,32 +2727,46 @@
       <c r="G45" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="82" t="s">
         <v>112</v>
       </c>
       <c r="I45" s="83"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="164.25" customHeight="1">
+      <c r="B46" s="75">
+        <v>44322</v>
+      </c>
+      <c r="C46" s="79">
+        <v>23</v>
+      </c>
+      <c r="D46" s="79">
+        <v>11</v>
+      </c>
+      <c r="E46" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="83"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75">
       <c r="B47" s="54"/>
       <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75">
       <c r="B48" s="54"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -2750,7 +2776,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="53"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="15.75">
       <c r="B49" s="54"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -2760,7 +2786,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="53"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="15.75">
       <c r="B50" s="54"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -2770,7 +2796,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="53"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="15.75">
       <c r="B51" s="54"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -2780,7 +2806,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="53"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="15.75">
       <c r="B52" s="54"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -2790,7 +2816,7 @@
       <c r="H52" s="24"/>
       <c r="I52" s="53"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="15.75">
       <c r="B53" s="54"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2800,7 +2826,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="53"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="15.75">
       <c r="B54" s="54"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -2810,7 +2836,7 @@
       <c r="H54" s="24"/>
       <c r="I54" s="53"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="15.75">
       <c r="B55" s="54"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -2820,7 +2846,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="53"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="15.75">
       <c r="B56" s="54"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -2830,7 +2856,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="15.75">
       <c r="B57" s="54"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -2840,7 +2866,7 @@
       <c r="H57" s="24"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="15.75">
       <c r="B58" s="54"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -2850,7 +2876,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="15.75">
       <c r="B59" s="54"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -2860,7 +2886,7 @@
       <c r="H59" s="24"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="15.75">
       <c r="B60" s="54"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -2870,7 +2896,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="53"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="15.75">
       <c r="B61" s="54"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -2880,7 +2906,7 @@
       <c r="H61" s="24"/>
       <c r="I61" s="53"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="15.75">
       <c r="B62" s="54"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -2890,7 +2916,7 @@
       <c r="H62" s="24"/>
       <c r="I62" s="53"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="15.75">
       <c r="B63" s="54"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -2900,7 +2926,7 @@
       <c r="H63" s="24"/>
       <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="15.75">
       <c r="B64" s="54"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -2910,7 +2936,7 @@
       <c r="H64" s="24"/>
       <c r="I64" s="53"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="15.75">
       <c r="B65" s="54"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -2920,7 +2946,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="53"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="15.75">
       <c r="B66" s="54"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -2930,7 +2956,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="53"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="15.75">
       <c r="B67" s="54"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -2940,7 +2966,7 @@
       <c r="H67" s="24"/>
       <c r="I67" s="53"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="15.75">
       <c r="B68" s="54"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
@@ -2950,7 +2976,7 @@
       <c r="H68" s="24"/>
       <c r="I68" s="53"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="15.75">
       <c r="B69" s="54"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
@@ -2960,7 +2986,7 @@
       <c r="H69" s="24"/>
       <c r="I69" s="53"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="15.75">
       <c r="B70" s="54"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
@@ -2970,7 +2996,7 @@
       <c r="H70" s="24"/>
       <c r="I70" s="53"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="15.75">
       <c r="B71" s="54"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -2980,7 +3006,7 @@
       <c r="H71" s="24"/>
       <c r="I71" s="53"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="15.75">
       <c r="B72" s="54"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -2990,7 +3016,7 @@
       <c r="H72" s="24"/>
       <c r="I72" s="53"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="15.75">
       <c r="B73" s="54"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -3000,7 +3026,7 @@
       <c r="H73" s="24"/>
       <c r="I73" s="53"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="15.75">
       <c r="B74" s="54"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -3010,7 +3036,7 @@
       <c r="H74" s="24"/>
       <c r="I74" s="53"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="15.75">
       <c r="B75" s="54"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -3020,7 +3046,7 @@
       <c r="H75" s="24"/>
       <c r="I75" s="53"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="15.75">
       <c r="B76" s="54"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
@@ -3030,7 +3056,7 @@
       <c r="H76" s="24"/>
       <c r="I76" s="53"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="15.75">
       <c r="B77" s="54"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -3040,7 +3066,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="53"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="15.75">
       <c r="B78" s="54"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -3050,7 +3076,7 @@
       <c r="H78" s="24"/>
       <c r="I78" s="53"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="15.75">
       <c r="B79" s="54"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
@@ -3060,7 +3086,7 @@
       <c r="H79" s="24"/>
       <c r="I79" s="53"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="15.75">
       <c r="B80" s="54"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -3070,7 +3096,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="53"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="15.75">
       <c r="B81" s="54"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -3080,7 +3106,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="53"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="15.75">
       <c r="B82" s="54"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -3090,7 +3116,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="53"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="15.75">
       <c r="B83" s="54"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -3100,7 +3126,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="53"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="15.75">
       <c r="B84" s="54"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -3110,7 +3136,7 @@
       <c r="H84" s="24"/>
       <c r="I84" s="53"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="15.75">
       <c r="B85" s="54"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -3120,7 +3146,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="53"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="15.75">
       <c r="B86" s="54"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
@@ -3130,7 +3156,7 @@
       <c r="H86" s="24"/>
       <c r="I86" s="53"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="15.75">
       <c r="B87" s="54"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
@@ -3140,7 +3166,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="53"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="15.75">
       <c r="B88" s="54"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
@@ -3150,7 +3176,7 @@
       <c r="H88" s="24"/>
       <c r="I88" s="53"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="15.75">
       <c r="B89" s="54"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
@@ -3160,7 +3186,7 @@
       <c r="H89" s="24"/>
       <c r="I89" s="53"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="15.75">
       <c r="B90" s="55"/>
       <c r="C90" s="56"/>
       <c r="D90" s="56"/>

--- a/iTransform/Trackersheet/RhegisanJebas_i-Transform_DevOps_Tracker_Sheet.xlsx
+++ b/iTransform/Trackersheet/RhegisanJebas_i-Transform_DevOps_Tracker_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A52BBB-885A-4664-BC48-6781CC4B14EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB7D04C-DCA0-4486-8A93-39B029C8895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t xml:space="preserve">Started with Basic commands in docker : Commands related to Docker images, containers and system. Understood what is container port and host port. Explored important concepts like Docker workflows and Docker network. Studied what is docker-compose and dockerfile why are they used and their features. Configured a Dockerfile and Built, run the Dockerfile. Understood what is docker volume, why do we need it and its types. Learned how to configure DockerVolumes in docker-compose. Got an overview of container Orchestration tool : Docker swarm.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker : Build your portfolio website and Conrtarised web application </t>
+  </si>
+  <si>
+    <t>Built an project along with the guided project. Topics learned : How to build custom images using Dockerfile, how to commit and push the image to the repository, how to work with docker volumes, how to containerize our source code with docker dependencies, how to map the ports of containers with host machine and hosting the website on specified port number.</t>
+  </si>
+  <si>
+    <t>Coursera Course and Docker on Linux System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker : Working with python project  and Installed docker on CentOs 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built an project along with the guided project. Additional topics learned : Using docker-compose file to manage more than one containers, Learned few concepts related to YAML(.yml). Installed docker on my virtual box (CentOS 7). Performed and revised all the docker related concepts on linux platform. Understood the filesystems in Linux and configured .bashrc and .bash_profile files.  </t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1304,23 +1319,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1328,98 +1376,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,10 +1796,10 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="101.25" customHeight="1">
-      <c r="B3" s="105">
+      <c r="B3" s="104">
         <v>44295</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="93">
         <v>1</v>
       </c>
       <c r="D3" s="8">
@@ -1813,8 +1822,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="76.5" customHeight="1">
-      <c r="B4" s="105"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="14">
         <v>3</v>
       </c>
@@ -1833,8 +1842,8 @@
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="87" customHeight="1">
-      <c r="B5" s="106"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="20">
         <v>4</v>
       </c>
@@ -1857,10 +1866,10 @@
       <c r="O5" s="24"/>
     </row>
     <row r="6" spans="2:15" ht="80.25" customHeight="1">
-      <c r="B6" s="107">
+      <c r="B6" s="106">
         <v>44296</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="98">
         <v>2</v>
       </c>
       <c r="D6" s="25">
@@ -1882,8 +1891,8 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:15" ht="109.5" customHeight="1">
-      <c r="B7" s="107"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="29">
         <v>4</v>
       </c>
@@ -1902,8 +1911,8 @@
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="2:15" ht="108" customHeight="1">
-      <c r="B8" s="108"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="34">
         <v>4</v>
       </c>
@@ -1925,16 +1934,16 @@
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="2:15" ht="157.5" customHeight="1">
-      <c r="B9" s="107">
+      <c r="B9" s="106">
         <v>44298</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="98">
         <v>3</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="77">
         <v>6</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="39" t="s">
@@ -1943,15 +1952,15 @@
       <c r="G9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="98" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="41"/>
       <c r="L9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="111" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="34">
         <v>3</v>
       </c>
@@ -1964,38 +1973,38 @@
       <c r="G10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="96"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="38"/>
       <c r="L10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="115.5" customHeight="1">
-      <c r="B11" s="105">
+      <c r="B11" s="104">
         <v>44300</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="100">
         <v>4</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="78">
         <v>4</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="83" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="100" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="41"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="84.75" customHeight="1">
-      <c r="B12" s="106"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="43">
         <v>6</v>
       </c>
@@ -2008,16 +2017,16 @@
       <c r="G12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="98"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="38"/>
       <c r="K12" s="24"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:15" ht="125.25" customHeight="1">
-      <c r="B13" s="84">
+      <c r="B13" s="85">
         <v>44301</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="95">
         <v>5</v>
       </c>
       <c r="D13" s="47">
@@ -2032,7 +2041,7 @@
       <c r="G13" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="95" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="49"/>
@@ -2041,8 +2050,8 @@
       <c r="M13" s="24"/>
     </row>
     <row r="14" spans="2:15" ht="124.5" customHeight="1">
-      <c r="B14" s="85"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="47">
         <v>3</v>
       </c>
@@ -2055,14 +2064,14 @@
       <c r="G14" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="49"/>
       <c r="L14" s="24"/>
       <c r="M14" s="50"/>
     </row>
     <row r="15" spans="2:15" ht="108.75" customHeight="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="79">
         <v>5</v>
       </c>
@@ -2075,18 +2084,18 @@
       <c r="G15" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="92"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="52"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="2:15" ht="75" customHeight="1">
-      <c r="B16" s="84">
+      <c r="B16" s="85">
         <v>44302</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="88">
         <v>6</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="84">
         <v>3</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -2098,14 +2107,14 @@
       <c r="G16" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="53"/>
     </row>
     <row r="17" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="61">
         <v>3</v>
       </c>
@@ -2118,12 +2127,12 @@
       <c r="G17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="109"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:12" ht="106.5" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="65">
         <v>4</v>
       </c>
@@ -2136,16 +2145,16 @@
       <c r="G18" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="94"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="57"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="80.25" customHeight="1">
-      <c r="B19" s="84">
+      <c r="B19" s="85">
         <v>44303</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="95">
         <v>7</v>
       </c>
       <c r="D19" s="47">
@@ -2160,14 +2169,14 @@
       <c r="G19" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="99" t="s">
+      <c r="H19" s="109" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="89.25" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="79">
         <v>6</v>
       </c>
@@ -2180,21 +2189,21 @@
       <c r="G20" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="52"/>
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="2:12" ht="69.75" customHeight="1">
-      <c r="B21" s="85">
+      <c r="B21" s="86">
         <v>44305</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="91">
         <v>8</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="84">
         <v>4</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="84" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="80" t="s">
@@ -2203,14 +2212,14 @@
       <c r="G21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="91" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="53"/>
     </row>
     <row r="22" spans="2:12" ht="67.5" customHeight="1">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="65">
         <v>6</v>
       </c>
@@ -2223,15 +2232,15 @@
       <c r="G22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="57"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="2:12" ht="86.25" customHeight="1">
-      <c r="B23" s="84">
+      <c r="B23" s="85">
         <v>44306</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="90">
         <v>9</v>
       </c>
       <c r="D23" s="47">
@@ -2252,8 +2261,8 @@
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="83.25" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="79">
         <v>4</v>
       </c>
@@ -2296,10 +2305,10 @@
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="2:12" ht="53.25" customHeight="1">
-      <c r="B26" s="84">
+      <c r="B26" s="85">
         <v>44308</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="88">
         <v>11</v>
       </c>
       <c r="D26" s="47">
@@ -2314,14 +2323,14 @@
       <c r="G26" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="71.25" customHeight="1">
-      <c r="B27" s="88"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="79">
         <v>5</v>
       </c>
@@ -2334,14 +2343,14 @@
       <c r="G27" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="94"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:12" ht="65.25" customHeight="1">
-      <c r="B28" s="84">
+      <c r="B28" s="85">
         <v>44309</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="88">
         <v>12</v>
       </c>
       <c r="D28" s="47">
@@ -2356,14 +2365,14 @@
       <c r="G28" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:12" ht="51.75" customHeight="1">
-      <c r="B29" s="88"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="79">
         <v>4</v>
       </c>
@@ -2376,14 +2385,14 @@
       <c r="G29" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="94"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="52"/>
     </row>
     <row r="30" spans="2:12" ht="94.5">
-      <c r="B30" s="84">
+      <c r="B30" s="85">
         <v>44310</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="88">
         <v>13</v>
       </c>
       <c r="D30" s="47">
@@ -2398,14 +2407,14 @@
       <c r="G30" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="102" t="s">
         <v>79</v>
       </c>
       <c r="I30" s="49"/>
     </row>
     <row r="31" spans="2:12" ht="35.25" customHeight="1">
-      <c r="B31" s="88"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="79">
         <v>2</v>
       </c>
@@ -2418,17 +2427,17 @@
       <c r="G31" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="104"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="52"/>
       <c r="K31" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B32" s="84">
+      <c r="B32" s="85">
         <v>44312</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="88">
         <v>14</v>
       </c>
       <c r="D32" s="47">
@@ -2443,14 +2452,14 @@
       <c r="G32" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H32" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="2:9" ht="64.5" customHeight="1">
-      <c r="B33" s="88"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="79">
         <v>6</v>
       </c>
@@ -2463,14 +2472,14 @@
       <c r="G33" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="94"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" ht="79.5" customHeight="1">
-      <c r="B34" s="84">
+      <c r="B34" s="85">
         <v>44313</v>
       </c>
-      <c r="C34" s="93">
+      <c r="C34" s="88">
         <v>15</v>
       </c>
       <c r="D34" s="47" t="s">
@@ -2485,14 +2494,14 @@
       <c r="G34" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="88" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="49"/>
     </row>
     <row r="35" spans="2:9" ht="82.5" customHeight="1">
-      <c r="B35" s="88"/>
-      <c r="C35" s="94"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="79">
         <v>6</v>
       </c>
@@ -2505,11 +2514,11 @@
       <c r="G35" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="94"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="52"/>
     </row>
     <row r="36" spans="2:9" ht="132" customHeight="1">
-      <c r="B36" s="75">
+      <c r="B36" s="76">
         <v>44314</v>
       </c>
       <c r="C36" s="79">
@@ -2577,7 +2586,7 @@
       <c r="I38" s="52"/>
     </row>
     <row r="39" spans="2:9" ht="98.25" customHeight="1">
-      <c r="B39" s="75">
+      <c r="B39" s="76">
         <v>44316</v>
       </c>
       <c r="C39" s="79">
@@ -2601,7 +2610,7 @@
       <c r="I39" s="52"/>
     </row>
     <row r="40" spans="2:9" ht="116.25" customHeight="1">
-      <c r="B40" s="75">
+      <c r="B40" s="76">
         <v>44317</v>
       </c>
       <c r="C40" s="79">
@@ -2625,7 +2634,7 @@
       <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:9" ht="86.25" customHeight="1">
-      <c r="B41" s="84">
+      <c r="B41" s="85">
         <v>44319</v>
       </c>
       <c r="C41" s="47">
@@ -2643,13 +2652,13 @@
       <c r="G41" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="90" t="s">
+      <c r="H41" s="95" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="2:9" ht="81.75" customHeight="1">
-      <c r="B42" s="85"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="73"/>
       <c r="D42" s="47">
         <v>3</v>
@@ -2660,14 +2669,14 @@
       <c r="F42" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="112" t="s">
+      <c r="G42" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="91"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="49"/>
     </row>
     <row r="43" spans="2:9" ht="66" customHeight="1">
-      <c r="B43" s="88"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="72"/>
       <c r="D43" s="79">
         <v>4</v>
@@ -2681,7 +2690,7 @@
       <c r="G43" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="92"/>
+      <c r="H43" s="97"/>
       <c r="I43" s="52"/>
     </row>
     <row r="44" spans="2:9" ht="84.75" customHeight="1">
@@ -2706,10 +2715,10 @@
       <c r="H44" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="83"/>
+      <c r="I44" s="74"/>
     </row>
     <row r="45" spans="2:9" ht="85.5" customHeight="1">
-      <c r="B45" s="75">
+      <c r="B45" s="76">
         <v>44321</v>
       </c>
       <c r="C45" s="79">
@@ -2730,10 +2739,10 @@
       <c r="H45" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="83"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="2:9" ht="164.25" customHeight="1">
-      <c r="B46" s="75">
+      <c r="B46" s="76">
         <v>44322</v>
       </c>
       <c r="C46" s="79">
@@ -2754,27 +2763,53 @@
       <c r="H46" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="83"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.75">
-      <c r="B47" s="54"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="111"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75">
-      <c r="B48" s="54"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="53"/>
+      <c r="I46" s="74"/>
+    </row>
+    <row r="47" spans="2:9" ht="102" customHeight="1">
+      <c r="B47" s="76">
+        <v>44323</v>
+      </c>
+      <c r="C47" s="79">
+        <v>24</v>
+      </c>
+      <c r="D47" s="79">
+        <v>11</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="74"/>
+    </row>
+    <row r="48" spans="2:9" ht="100.5" customHeight="1">
+      <c r="B48" s="76">
+        <v>44324</v>
+      </c>
+      <c r="C48" s="79">
+        <v>25</v>
+      </c>
+      <c r="D48" s="79">
+        <v>11</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="97"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" ht="15.75">
       <c r="B49" s="54"/>
@@ -3197,13 +3232,8 @@
       <c r="I90" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
+  <mergeCells count="42">
+    <mergeCell ref="H47:H48"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="C16:C18"/>
@@ -3214,7 +3244,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="H41:H43"/>
     <mergeCell ref="B34:B35"/>
@@ -3230,15 +3264,17 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
